--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2687426.928926765</v>
+        <v>-2690121.726202614</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>295.7880427010228</v>
+        <v>23.41994504831916</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>47.65883542934952</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.781160222249673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>193.3921981866896</v>
       </c>
       <c r="X5" t="n">
-        <v>97.00614067381021</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>8.90616225919158</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>37.3483497977251</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,7 +1111,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>204.6785882200682</v>
+        <v>160.5958651236758</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99533837730304</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.6692588683104</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2494,7 +2494,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S25" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T25" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,19 +2713,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3709,7 +3709,7 @@
         <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
         <v>193.1208028352486</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>350.022587276107</v>
+        <v>141.276945881932</v>
       </c>
       <c r="C2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="D2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>736.6224273402288</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4398,13 +4398,13 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4425,7 +4425,7 @@
         <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.2467865680031</v>
+        <v>99.38702437542688</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>99.38702437542688</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>99.38702437542688</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4528,10 +4528,10 @@
         <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.2467865680031</v>
+        <v>281.0354892056666</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1621.991392838317</v>
+        <v>1228.647807131574</v>
       </c>
       <c r="C5" t="n">
-        <v>1621.991392838317</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D5" t="n">
-        <v>1263.725694231566</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4598,19 +4598,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583055</v>
+        <v>1988.713405456775</v>
       </c>
       <c r="X5" t="n">
-        <v>2008.591232902438</v>
+        <v>1615.247647195695</v>
       </c>
       <c r="Y5" t="n">
-        <v>2008.591232902438</v>
+        <v>1615.247647195695</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
         <v>1343.569531118698</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="C7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>60.24291006213602</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1598.720514218209</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1402.091766378071</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1179.113285572806</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>889.9949480766438</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>889.9949480766438</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W7" t="n">
-        <v>600.5777780396833</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="X7" t="n">
-        <v>600.5777780396833</v>
+        <v>281.0354892056661</v>
       </c>
       <c r="Y7" t="n">
-        <v>379.7851988961531</v>
+        <v>60.24291006213602</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285689</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.878520285689</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.612821678939</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.824569080695</v>
+        <v>979.2965659530255</v>
       </c>
       <c r="F8" t="n">
-        <v>612.8386642910871</v>
+        <v>568.310661163418</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4808,10 +4808,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4841,13 +4841,13 @@
         <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>763.0834407704886</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>542.2908616269584</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,25 +5027,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,13 +5054,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5179,16 +5179,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5416,19 +5416,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5586,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
         <v>680.0291294438176</v>
@@ -5650,25 +5650,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,7 +6023,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
         <v>3467.980956852889</v>
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6169,10 +6169,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R25" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S25" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T25" t="n">
         <v>2243.385329532432</v>
@@ -6184,13 +6184,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X25" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y25" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,7 +6312,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6400,7 +6400,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6658,13 +6658,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6874,10 +6874,10 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
@@ -7087,19 +7087,19 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,16 +7129,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150021</v>
@@ -7321,22 +7321,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,16 +7345,16 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7570,13 +7570,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184728</v>
+        <v>294.8344935184732</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="P6" t="n">
-        <v>294.8344935184728</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>69.4848490699847</v>
+        <v>341.8529467226884</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>248.4644354452384</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>187.1603202505056</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>216.8034931298451</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393068</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819073</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7.673861546209082e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29520.00810516217</v>
+        <v>29520.00810516215</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744284</v>
@@ -26430,7 +26430,7 @@
         <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="H4" t="n">
         <v>8727.256391744284</v>
@@ -26439,13 +26439,13 @@
         <v>16718.11565483775</v>
       </c>
       <c r="J4" t="n">
-        <v>16718.11565483774</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="K4" t="n">
+        <v>16718.11565483775</v>
+      </c>
+      <c r="L4" t="n">
         <v>16718.11565483776</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16718.11565483774</v>
       </c>
       <c r="M4" t="n">
         <v>16718.11565483776</v>
@@ -26457,7 +26457,7 @@
         <v>16718.11565483775</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483775</v>
+        <v>16718.11565483776</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1237209.564120926</v>
+        <v>-1237673.860912951</v>
       </c>
       <c r="C6" t="n">
         <v>-228459.9094168278</v>
       </c>
       <c r="D6" t="n">
-        <v>-388475.3721648266</v>
+        <v>-388475.3721648268</v>
       </c>
       <c r="E6" t="n">
-        <v>-435262.2480230066</v>
+        <v>-435296.9859484423</v>
       </c>
       <c r="F6" t="n">
-        <v>-109849.7862156514</v>
+        <v>-109884.5241410871</v>
       </c>
       <c r="G6" t="n">
-        <v>-109849.7862156514</v>
+        <v>-109884.5241410871</v>
       </c>
       <c r="H6" t="n">
-        <v>-109849.7862156514</v>
+        <v>-109884.5241410871</v>
       </c>
       <c r="I6" t="n">
         <v>-139309.9495023849</v>
       </c>
       <c r="J6" t="n">
-        <v>-287487.4093187356</v>
+        <v>-287487.4093187357</v>
       </c>
       <c r="K6" t="n">
-        <v>-119882.2315087532</v>
+        <v>-119882.2315087531</v>
       </c>
       <c r="L6" t="n">
         <v>-168176.2015169439</v>
@@ -26707,13 +26707,13 @@
         <v>24.28464749203972</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203974</v>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203976</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>9.592326932761353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.4659346270234</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>113.8582323118998</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>98.77512721721965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>155.8487705307234</v>
       </c>
       <c r="X5" t="n">
-        <v>272.7249600046588</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>157.4004377856126</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>64.20922262184851</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>206.2431374333852</v>
+        <v>250.3258605297776</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>176.7143170117341</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9153944837844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>233.9389431948329</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.267838362266</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34793,7 +34793,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>544.5140226420051</v>
+        <v>544.5140226420056</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>521.8736946105084</v>
       </c>
       <c r="P6" t="n">
-        <v>544.5140226420051</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402482</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>91.80490927281453</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O25" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P25" t="n">
         <v>319.9164207986647</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402477</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
